--- a/software_cerradura_entrega2_final/Declaración de esfuerzo.xlsx
+++ b/software_cerradura_entrega2_final/Declaración de esfuerzo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Experimentación esperada</t>
   </si>
@@ -35,140 +35,71 @@
     <t>Descripción de la implementación</t>
   </si>
   <si>
-    <t>Cuando un usuario ingrese una clave al microcontrolador, se debe hacer la apertura de puerta si la clave existe en la memoria y si el usuario esta accediendo en un horario de acceso permitido.
-Esta funcionalidad puede requerir modificaciones en varios componentes de la arquitectura y hay varias soluciones. El grupo escoge cual aplicar.</t>
-  </si>
-  <si>
-    <r>
-      <t>Entidad física:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Extender el programa del microcontrolador para que envíe Health Checks al Hub. La frecuencia del health check se define en el microcontrolador y en el Hub. Adicionalmente, en el hub se define el número de health checks que se tolera perder antes de notificar un fallo al sistema central Yale.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Middleware:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-REQ M1
-La arquitectura tiene un componente que representa al Hub y que tiene (además de la funcionalidad de los experimentos pasados) las siguientes funcionalidades:
-- Monitorear los health checks enviados desde las cerraduras.
-- Enviar su propio health check al sistema central de Yale.
-- Si el receptor del health check (Hub en el primer caso y sistema de central de Yale) deja de recibir más de X cantidad de health checks (el valor es parametrizado), entonces el sistema central de Yale notifica el fallo al propietario del inmueble implicado (vía correo electrónico). Ejemplo: "CERRADURA FUERA DE LINEA" y "HUB FUERA DE LINEA".
-REQ M2
-Asegurar los tópicos de los servidores MQTT para que sólo puedan leer/escribir suscriptores/publicadores válidos.</t>
-    </r>
-  </si>
-  <si>
-    <t>Re-ejecutar la prueba de carga del experimento 1 para verificar el cumplimiento del escenario de desempeño y determinar si al agregar la seguridad se afecta el desempeño obtenido inicialmente: En el escenario más crítico, la arquitectura debe ser capaz de manejar el envío de alarmas provenientes de los 200 inmuebles ubicados en las 1500 unidades residenciales que Yale espera alcanzar para 2020. Las peticiones son enviadas en una ventana de 1 minuto con 0% de error y tiempos de respuesta inferiores a 1 segundo. Esto aplica para los diferentes tipos de emergencia.</t>
-  </si>
-  <si>
-    <t>Sustentación</t>
-  </si>
-  <si>
-    <t>Hace uso de un depósito de los fuentes en donde queden los artefactos de sw producidos: 
-- Programa del microcontrolador, ejemplo de archivo .ino (o equivalente de acuerdo al tipo de microcontrolador). 
+    <t>Diseñar e implementar el tablero de control de la seguridad privada:
+- Login/logout, solo para usuarios con el perfil de seguridad privada.
+- Consultar en un mapa de la unidad residencial, los inmuebles que están en situación de alarma (puerta abierta, apertura no permitida, intento de apertura sospechosa, nivel de batería crítico) y/o fallo ("CERRADURA FUERA DE LINEA" y "HUB FUERA DE LINEA") . Este debe mostrar las alarmas/fallos en tiempo cercano al real recibidos desde la entidad física, no se aceptarán SIMULACIONES.
+- Entiendase "mapa" como un componente visual que permita mostrar de manera intuitiva la distribución de los inmuebles de la unidad residencial e identificar la ubicación de los inmuebles con alarmas/fallos.
+- El mapa debe permitir filtrar por tipo de alarma/fallo de manera tal que se puedan realizar visualizaciones personalizadas. Ejemplo: un determinado usuario es responsable de atender solo los fallos, por tanto, en su mapa solo se deberían visualizar "CERRADURA FUERA DE LINEA" y "HUB FUERA DE LINEA".
+- La información del mapa debe actualizarse de forma automática, o sea, sin requerir intervención del usuario final.
+- En el mapa deben hacerse la alertas y fallos muy visibles para llamar la atención del guardia.
+- El grupo debe diseñar un mecanismo que muestre las alarmas o fallos mientras estas señales son enviadas desde las entidades físicas (hub y cerradura), de lo contrario deben ser quitadas del mapa. 
+- Al seleccionar un inmueble que esté en situación de alarma y/o fallo, se debe ir a una vista de detalle donde se muestre la información del inmueble y los datos de contacto de los propietarios.
+- Se recomienda aplicar los lineamientos de diseño de dashboards Web vistos en clase y que se encuentran consignados en la siguiente guía: https://profesores.virtual.uniandes.edu.co/~isis2503/dokuwiki/doku.php?id=laboratorios:prototipadouiintroduccion</t>
+  </si>
+  <si>
+    <t>Hace uso de un depósito de los fuentes en donde queden los artefactos de software producidos: 
 - Código fuente de componentes de software. 
-Una vez subido esos archivos al repositorio, deben hacer un release antes de la fecha límite de entrega (6 de mayo a medianoche). Es esa release la que se revisa en la sustentación.
-Es inaceptable subir al repositorio zips con código empaquetado, se desvirtua por completo el objetivo del repositorio que es el control de versiones. La nota de los grupos que utilicen esta práctica se verá impactada.</t>
-  </si>
-  <si>
-    <t>Proceso de desarrollo</t>
+Una vez subido esos archivos al repositorio, deben hacer un release antes de la fecha límite de entrega (19 de mayo antes de la sustentación del exp. 3). Ese release se se revisará en la sustentación.
+Es inaceptable subir al repositorio zips con código empaquetado, ya que se desvirtua por completo el objetivo del repositorio que es el control de versiones. La nota de los grupos que utilicen esta práctica se verá impactada.
+DEBEN subir al depósito de manera obligatoria la Declaración de Esfuerzo correspondiente a esta entrega.</t>
   </si>
   <si>
     <t>En la sustentación se evidencia que las decisiones de diseño son de conocimiento de todos.</t>
   </si>
   <si>
+    <t>Se conferirá una nota de bono a los equipos que hayan extendido las funcionalidades básicas del sistema y/o que hayan implementado tableros de control para los otros actores del sistema (administrador, Yale, propietario). Si en la última entrega sacan 5 (sin incluir el bono), dicho bono puede sumarse a notas de entregas previas del experimento. El bono se otorga a los mejores grupos luego de una evaluación conjunta con representantes de Yale Colombia.</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Juan Carlos Corrales (201531115)</t>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Juan Carlos Corrales Guerrero (201531115)</t>
   </si>
   <si>
     <t>Carlos Alberto Mendoza (201621144)</t>
   </si>
   <si>
-    <t>Kelvin Estupiñan Garavito (201614210)</t>
+    <t>Kelvin Santiago Estupiñan Garavito (201614210)</t>
   </si>
   <si>
     <t>Carlos Sebastián Gómez (201623374)</t>
   </si>
   <si>
-    <t>50% 
-Desarrolló toda la parte física, o del microcontrolador.</t>
-  </si>
-  <si>
-    <t>50%
-Tenía asignado programar el servidor para que administrara los horarios de apertura, los cuales deberían enviarse al microcontrolador.</t>
-  </si>
-  <si>
-    <t>100% (Programó todo el código del microcontrolador y del HUB (Node-Red))</t>
-  </si>
-  <si>
-    <t>50%, 100% del Req 1 (Desarrolló el monitorio de los Healthchekc en el HUB, así como también que este envíe su propio Health Check a Yale, el Hub también notifica a Yale cuando el dispositivo está fuera de línea)</t>
-  </si>
-  <si>
-    <t>50%, 100% del Req 2 (Desarrolló la seguridad de la publicación en los tópicos de MQTT, autenticación y autorización y certificados SSL)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Entidad virtual:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Revisar el listado de casos de uso y desarrollar la funcionalidad requerida en el back-end para cada uno de ellos si esta falta:
-- Gestionar Unidades Residenciales.
-- Gestionar Inmuebles.
-- Gestionar Hubs.
-- Gestionar Cerraduras.
-- Gestionar Usuarios.
-- Consultar alarmas mensuales por barrio.
-- Silenciar Alarma.
-- Gestionar Claves Cerraduras.
-- Gestionar Horarios de Acceso.
-- Consultar alarma en Tiempo Real en Inmueble.
-- Consultar alarmas mensuales en Inmueble.
-- Consultar alarmas mensuales por Unidad.
-- Consultar alarmas en Tiempo Real de Unidad Residencial.
-- Ingresar a Sistema.
-- Salir del Sistema.
-- Cambiar Clave de acceso a la capa Web.
-- Actualizar información de contacto del usuario (e.g., correo, teléfono).</t>
-    </r>
-  </si>
-  <si>
-    <t>10% Gestión de contraseñas</t>
-  </si>
-  <si>
-    <t>100%, Ejecutar prueba de carga</t>
-  </si>
-  <si>
-    <t>80%, Gestionar Uniades Residenciales, Inmuebles, usuarios, contraseñas, consultar alarmas mensuales, Actualizar información del contacto del usuario.Gestuinar cerraduas, consultar alarmas mensuales por ciudad.</t>
-  </si>
-  <si>
-    <t>10% Ingreso y salir al sistema para: Acceso a los 4 stakeholders,  Cambio de clave de acceso a la capa web (Auth0)</t>
+    <t>X (Desarrolló toda la parte del wiring y el Hub, simulado en Node-Red)</t>
+  </si>
+  <si>
+    <t>X (Incluyó el código del wiring y de Node Red, así como la declaración de esfuerzo)</t>
+  </si>
+  <si>
+    <t>X 50% (Consultar mapa de la unidad residencial, Filtrar por tipo de alarma, actualización automática para la información del mapa, Fallos son muy visibles, detalle de residencia que presenta falla.)</t>
+  </si>
+  <si>
+    <t>X Imprimió el Póster</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>37.5%</t>
   </si>
 </sst>
 </file>
@@ -210,7 +141,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -359,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -370,15 +301,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -388,6 +316,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -402,21 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -701,88 +620,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="G1:K2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="406.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="19" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -790,18 +711,20 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="166.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" ht="196.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="18" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -809,19 +732,15 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:11" ht="181.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -830,141 +749,75 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="196.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" ht="301.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    <row r="9" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A11:K11"/>
+  <mergeCells count="12">
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -979,6 +832,6 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/software_cerradura_entrega2_final/Declaración de esfuerzo.xlsx
+++ b/software_cerradura_entrega2_final/Declaración de esfuerzo.xlsx
@@ -87,19 +87,19 @@
     <t>X (Desarrolló toda la parte del wiring y el Hub, simulado en Node-Red)</t>
   </si>
   <si>
-    <t>X (Incluyó el código del wiring y de Node Red, así como la declaración de esfuerzo)</t>
-  </si>
-  <si>
     <t>X 50% (Consultar mapa de la unidad residencial, Filtrar por tipo de alarma, actualización automática para la información del mapa, Fallos son muy visibles, detalle de residencia que presenta falla.)</t>
   </si>
   <si>
-    <t>X Imprimió el Póster</t>
-  </si>
-  <si>
     <t>0.00%</t>
   </si>
   <si>
     <t>37.5%</t>
+  </si>
+  <si>
+    <t>X (Incluyó el código del wiring y de Node Red, así como la declaración de esfuerzo, Vidéo de Youtube y parte del Póster, también Diagramas de Despliegue, de componentes y de casos de uso)</t>
+  </si>
+  <si>
+    <t>X Imprimió el Póster, redacción del SAD, terminó el Póster</t>
   </si>
 </sst>
 </file>
@@ -322,6 +322,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -335,9 +338,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,57 +636,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" ht="406.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -699,10 +699,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -719,11 +719,11 @@
         <v>0.05</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -732,7 +732,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="181.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -771,17 +771,17 @@
       <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>0.25</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>8</v>
@@ -818,11 +818,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -830,6 +825,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/software_cerradura_entrega2_final/Declaración de esfuerzo.xlsx
+++ b/software_cerradura_entrega2_final/Declaración de esfuerzo.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Proyecto final" sheetId="1" r:id="rId1"/>
+    <sheet name="Sad" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Experimentación esperada</t>
   </si>
@@ -90,16 +91,55 @@
     <t>X 50% (Consultar mapa de la unidad residencial, Filtrar por tipo de alarma, actualización automática para la información del mapa, Fallos son muy visibles, detalle de residencia que presenta falla.)</t>
   </si>
   <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>37.5%</t>
-  </si>
-  <si>
     <t>X (Incluyó el código del wiring y de Node Red, así como la declaración de esfuerzo, Vidéo de Youtube y parte del Póster, también Diagramas de Despliegue, de componentes y de casos de uso)</t>
   </si>
   <si>
     <t>X Imprimió el Póster, redacción del SAD, terminó el Póster</t>
+  </si>
+  <si>
+    <t>X (Intento de Implementación de Login/Logout, Intento de Corregir la interfaz interna que interactúa con Auth0)</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>Diagramas de Despliegue</t>
+  </si>
+  <si>
+    <t>Diagrama de Componentes</t>
+  </si>
+  <si>
+    <t>Diagrama de Casos de Uso</t>
+  </si>
+  <si>
+    <t>75% del Póster</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Restricciones</t>
+  </si>
+  <si>
+    <t>Casos de Uso</t>
+  </si>
+  <si>
+    <t>Atributos de Calidad</t>
+  </si>
+  <si>
+    <t>Vista de Contexto</t>
+  </si>
+  <si>
+    <t>Vista de Información</t>
+  </si>
+  <si>
+    <t>12,5% Póster</t>
+  </si>
+  <si>
+    <t>32.5%</t>
+  </si>
+  <si>
+    <t>15.00%</t>
   </si>
 </sst>
 </file>
@@ -185,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -286,11 +326,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,21 +539,44 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,57 +873,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" ht="406.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -704,7 +941,9 @@
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -719,11 +958,11 @@
         <v>0.05</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -772,16 +1011,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="11">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>8</v>
@@ -834,4 +1073,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>